--- a/input/Input 10052020.xlsx
+++ b/input/Input 10052020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\LorberEgeghy4\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Lorber-Egeghy-Model-East-et-al\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46787B22-751C-4241-A285-13F396AC992B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0B8DF-773E-4345-874D-62EF359F5D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{954D9476-CD18-4396-BAEA-D273523A90CB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{954D9476-CD18-4396-BAEA-D273523A90CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -1049,9 +1049,6 @@
     </r>
   </si>
   <si>
-    <t>Defines a seed for use in random number genration throughout the model.</t>
-  </si>
-  <si>
     <t>Soil</t>
   </si>
   <si>
@@ -1140,9 +1137,6 @@
   </si>
   <si>
     <t>A spreadsheet of concentration data extracted from multiple papers published from 2011-2017.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            P10-P99 = 10th and 99th percentiles, WWTP = Wastewater Treatment Plant</t>
   </si>
   <si>
     <r>
@@ -1175,6 +1169,12 @@
   </si>
   <si>
     <t>Tap Water</t>
+  </si>
+  <si>
+    <t>Defines a seed for use in random number generation throughout the model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            P10, P99 = 10th and 99th percentiles, WWTP = Wastewater Treatment Plant</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1865,7 +1865,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -1875,12 +1875,12 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="39" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2222,7 @@
   </sheetPr>
   <dimension ref="A1:AT123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>236</v>
@@ -2393,7 +2393,7 @@
         <v>200</v>
       </c>
       <c r="AS1" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.55000000000000004">
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="36">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36">
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="36">
         <v>10</v>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="36">
         <v>25</v>
@@ -2821,13 +2821,13 @@
         <v>2012</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="36">
         <v>0.16</v>
@@ -2856,7 +2856,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="Z6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA6" t="s">
         <v>67</v>
@@ -2925,13 +2925,13 @@
         <v>2012</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="36">
         <v>0.04</v>
@@ -2960,7 +2960,7 @@
         <v>82</v>
       </c>
       <c r="Z7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA7" t="s">
         <v>67</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="36">
         <v>10</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="36">
         <v>25</v>
@@ -3243,7 +3243,7 @@
         <v>198</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36">
@@ -3352,7 +3352,7 @@
         <v>197</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36">
@@ -3461,7 +3461,7 @@
         <v>196</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36">
@@ -3573,7 +3573,7 @@
         <v>191</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36">
@@ -3777,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="36">
         <v>0.6</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H17" s="36">
         <v>0.6</v>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -4164,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36" t="s">
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H20" s="36">
         <v>6.3</v>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="36">
         <v>0.15</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="36">
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36">
@@ -4693,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H24" s="36">
         <v>1</v>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H25" s="36">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H26" s="36">
         <v>0.6</v>
@@ -4988,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H27" s="36">
         <v>0.6</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="36">
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H29" s="36"/>
       <c r="I29" s="36">
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H30" s="36">
         <v>10</v>
@@ -5376,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H31" s="36">
         <v>25</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="16">
         <v>550</v>
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" s="16">
         <v>550</v>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
@@ -5685,7 +5685,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H34" s="36">
         <v>10</v>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H35" s="36">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="36">
@@ -6013,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36">
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H38" s="36">
         <v>5</v>
@@ -6236,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H39" s="36">
         <v>7</v>
@@ -6340,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" s="36">
         <v>1.2</v>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H41" s="36">
         <v>0.8</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H42" s="36">
         <v>5</v>
@@ -6658,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H43" s="36">
         <v>7</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" s="16">
         <v>550</v>
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="16">
         <v>550</v>
@@ -6867,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H46" s="36">
         <v>2.7</v>
@@ -7069,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H47" s="36">
         <v>1.2</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" s="16">
         <v>629</v>
@@ -7172,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H48" s="36" t="s">
         <v>116</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="16">
         <v>629</v>
@@ -7282,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H49" s="36" t="s">
         <v>116</v>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H50" s="38">
         <v>1</v>
@@ -7496,13 +7496,13 @@
         <v>2012</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H51" s="36">
         <v>0.16</v>
@@ -7594,13 +7594,13 @@
         <v>2012</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H52" s="36">
         <v>0.16</v>
@@ -7692,13 +7692,13 @@
         <v>2012</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H53" s="36">
         <v>0.04</v>
@@ -7790,13 +7790,13 @@
         <v>2012</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H54" s="36">
         <v>0.04</v>
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" s="36">
@@ -7999,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
@@ -8099,7 +8099,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36">
@@ -8302,7 +8302,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H59" s="36">
         <v>0.52</v>
@@ -8409,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H60" s="36">
         <v>0.52</v>
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H61" s="37">
         <v>1.1299999999999999</v>
@@ -8621,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H62" s="37">
         <v>1.1299999999999999</v>
@@ -8725,7 +8725,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="36">
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H65" s="36">
         <v>10</v>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H66" s="36">
         <v>10</v>
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H67" s="36">
         <v>2.7</v>
@@ -9239,7 +9239,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H68" s="36">
         <v>1.2</v>
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H69" s="36">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>140</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H70" s="36">
         <v>0.5</v>
@@ -9548,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H71" s="36">
         <v>0.46</v>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H72" s="36">
         <v>1.52</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H73" s="36">
         <v>0.52</v>
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H74" s="37">
         <v>1.1299999999999999</v>
@@ -9947,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H75" s="36">
         <v>5</v>
@@ -10053,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H76" s="36">
         <v>7</v>
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H77" s="38">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
@@ -10363,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="36"/>
@@ -10466,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="36">
@@ -10572,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H81" s="36">
         <v>0.46</v>
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H82" s="36">
         <v>1.52</v>
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H83" s="36">
         <v>4</v>
@@ -10859,7 +10859,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H84" s="36">
         <v>4</v>
@@ -10961,7 +10961,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H85" s="36">
         <v>1</v>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H86" s="36">
         <v>1.9</v>
@@ -11173,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
@@ -11376,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H89" s="36"/>
       <c r="I89" s="36"/>
@@ -11479,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H90" s="36"/>
       <c r="I90" s="36"/>
@@ -11579,7 +11579,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H91" s="36"/>
       <c r="I91" s="36"/>
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H93" s="36"/>
       <c r="I93" s="36">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" s="36"/>
       <c r="I94" s="36">
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H95" s="36"/>
       <c r="I95" s="36">
@@ -12088,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H96" s="36"/>
       <c r="I96" s="36">
@@ -12191,7 +12191,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H97" s="36"/>
       <c r="I97" s="36">
@@ -12293,7 +12293,7 @@
         <v>2</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H98" s="36"/>
       <c r="I98" s="36">
@@ -12395,7 +12395,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H99" s="36"/>
       <c r="I99" s="36">
@@ -12497,7 +12497,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H100" s="36"/>
       <c r="I100" s="36">
@@ -12582,7 +12582,7 @@
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B101" s="16">
         <v>550</v>
@@ -12600,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B102" s="16">
         <v>550</v>
@@ -12703,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
@@ -12804,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H103" s="36">
         <v>2.7</v>
@@ -12905,7 +12905,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H104" s="36">
         <v>1.2</v>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H105" s="36">
         <v>2.7</v>
@@ -13106,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H106" s="36">
         <v>1.2</v>
@@ -13209,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H107" s="36"/>
       <c r="I107" s="36">
@@ -13312,7 +13312,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H108" s="36"/>
       <c r="I108" s="36">
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H109" s="36">
         <v>0.3</v>
@@ -13511,7 +13511,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H110" s="36">
         <v>0.08</v>
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="36">
@@ -13712,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="36">
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H113" s="36">
         <v>4</v>
@@ -13912,7 +13912,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H114" s="36">
         <v>4</v>
@@ -13999,7 +13999,7 @@
         <v>46</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>66</v>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H115" s="36"/>
       <c r="I115" s="36"/>
@@ -14034,7 +14034,7 @@
         <v>26.53</v>
       </c>
       <c r="Y115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA115" t="s">
         <v>83</v>
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH115" t="s">
         <v>38</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="AS115" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.55000000000000004">
@@ -14106,13 +14106,13 @@
         <v>2012</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H116" s="36">
         <v>0.16</v>
@@ -14204,13 +14204,13 @@
         <v>2012</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H117" s="36">
         <v>0.04</v>
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H118" s="38">
         <v>1</v>
@@ -14403,7 +14403,7 @@
         <v>46</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>66</v>
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H119" s="36"/>
       <c r="I119" s="36"/>
@@ -14438,7 +14438,7 @@
         <v>15.34</v>
       </c>
       <c r="Y119" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA119" t="s">
         <v>83</v>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH119" t="s">
         <v>38</v>
@@ -14495,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="AS119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.55000000000000004">
@@ -14503,7 +14503,7 @@
         <v>46</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>66</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H120" s="36"/>
       <c r="I120" s="36"/>
@@ -14538,7 +14538,7 @@
         <v>22.23</v>
       </c>
       <c r="Y120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA120" t="s">
         <v>83</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH120" t="s">
         <v>38</v>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="AS120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.55000000000000004">
@@ -14603,7 +14603,7 @@
         <v>46</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>66</v>
@@ -14618,7 +14618,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H121" s="36"/>
       <c r="I121" s="36"/>
@@ -14638,7 +14638,7 @@
         <v>1.34</v>
       </c>
       <c r="Y121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA121" t="s">
         <v>83</v>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="AG121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH121" t="s">
         <v>38</v>
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="AS121" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:45" x14ac:dyDescent="0.55000000000000004">
@@ -14703,7 +14703,7 @@
         <v>46</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>66</v>
@@ -14718,7 +14718,7 @@
         <v>2</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H122" s="36"/>
       <c r="I122" s="36"/>
@@ -14738,7 +14738,7 @@
         <v>3</v>
       </c>
       <c r="Y122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA122" t="s">
         <v>83</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="AG122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH122" t="s">
         <v>38</v>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="AS122" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.55000000000000004">
@@ -14803,7 +14803,7 @@
         <v>46</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>66</v>
@@ -14818,7 +14818,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H123" s="36"/>
       <c r="I123" s="36"/>
@@ -14838,7 +14838,7 @@
         <v>4.99</v>
       </c>
       <c r="Y123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA123" t="s">
         <v>83</v>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="AG123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH123" t="s">
         <v>38</v>
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="AS123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -15049,16 +15049,16 @@
         <v>296</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>339</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -21156,24 +21156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
-    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100175F8EE2D16CCF4E9795DBA2E0366580" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0e36aa337ceae7f1d93f3efc48c3ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e6ae508a-59c9-42bb-b4fe-819888132927" xmlns:ns4="7d98c609-804a-400c-9f9b-45f6e3b4e0b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="376aea29d8ef60d7b2126687d24b7c91" ns3:_="" ns4:_="">
     <xsd:import namespace="e6ae508a-59c9-42bb-b4fe-819888132927"/>
@@ -21382,10 +21364,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
+    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A602FC1-DACC-4B1D-A27E-1705833C36F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECAB6FE-ED10-48D6-B2FD-BD0018793311}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e6ae508a-59c9-42bb-b4fe-819888132927"/>
+    <ds:schemaRef ds:uri="7d98c609-804a-400c-9f9b-45f6e3b4e0b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21408,20 +21419,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECAB6FE-ED10-48D6-B2FD-BD0018793311}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A602FC1-DACC-4B1D-A27E-1705833C36F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e6ae508a-59c9-42bb-b4fe-819888132927"/>
-    <ds:schemaRef ds:uri="7d98c609-804a-400c-9f9b-45f6e3b4e0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>